--- a/z.ERP/trunk/z.ERP.Web/File/Template/租约销售导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/租约销售导出.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF42B77C-2F9F-4ECC-AE55-C83E35B87997}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4499F3F2-05B6-4C09-B93F-5ABE8D6386F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,22 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractSale.KINDCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractSale.KINDNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +107,22 @@
   </si>
   <si>
     <t>商户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ContractSale.CATEGORYNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ContractSale.FLOORCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -473,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -485,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -526,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/z.ERP/trunk/z.ERP.Web/File/Template/租约销售导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/租约销售导出.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4499F3F2-05B6-4C09-B93F-5ABE8D6386F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B18EB5-CACF-45F3-A271-C29D99E98D88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,7 +118,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=ContractSale.FLOORCODE</t>
+    <t>&amp;=ContractSale.FLOORNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ContractSale.CATEGORYCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业态编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业态名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,22 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="11.4140625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,28 +493,31 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -524,24 +537,27 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
